--- a/play_book.xlsx
+++ b/play_book.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiksimgen/Documents/Development/Python/quotation_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C6E91F-1D15-CD4A-B4BA-4D7F2F0210F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A15E753-FBD3-8C48-8BB3-DD97DE102B45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37520" yWindow="-6060" windowWidth="28040" windowHeight="17040" xr2:uid="{1CEBEE94-05F8-0346-80C5-8EB101547B26}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{1CEBEE94-05F8-0346-80C5-8EB101547B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,12 +44,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +70,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,14 +389,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1803332-746F-B84A-93AA-B8DCAA5634A7}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>